--- a/biology/Zoologie/Heteropsis_(papillon)/Heteropsis_(papillon).xlsx
+++ b/biology/Zoologie/Heteropsis_(papillon)/Heteropsis_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteropsis est un genre de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae qui résident pour la plupart à Madagascar, quelques-uns en Afrique et un en Asie du Sud-Est.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Heteropsis a été décrit par Westwood en 1850.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Heteropsis adolphei ( Guérin-Méneville, 1843) ; présent dans le Sud de l'Inde
@@ -563,16 +579,16 @@
 Heteropsis comorana (Oberthür, 1916) ; présent dans l'archipel des Comores
 Heteropsis cowani (Butler, 1880) ; présent à Madagascar
 Heteropsis decira (Plötz, 1880) ; présent au Ghana et au Liberia.
-Heteropsis difficilis (Mabille, [1880]) ; présent à Madagascar
+Heteropsis difficilis (Mabille, ) ; présent à Madagascar
 Heteropsis drepana Westwood, 1850 ; présent à Madagascar
-Heteropsis eliasis (Hewitson, [1866]) ; présent en Angola et dans le Sud du Zaïre.
+Heteropsis eliasis (Hewitson, ) ; présent en Angola et dans le Sud du Zaïre.
 Heteropsis elisi (Karsch, 1893) ; présent au Togo et en Guinée
 Heteropsis elisi elisi
 Heteropsis elisi tanzanica Kielland, 1994
 Heteropsis elisi uluguru Kielland, 1990
 Heteropsis erebennis (Oberthür, 1916) ; présent à Madagascar
 Heteropsis erebina (Oberthür, 1916) ; présent à Madagascar
-Heteropsis exocellata (Mabille, [1880]) ; présent à Madagascar
+Heteropsis exocellata (Mabille, ) ; présent à Madagascar
 Heteropsis fuliginosa (Mabille, 1878) ; présent à Madagascar
 Heteropsis iboina (Ward, 1870) ; présent à Madagascar
 Heteropsis laeta (Oberthür, 1916) ; présent à Madagascar
@@ -594,7 +610,7 @@
 Heteropsis ochracea Lathy, 1906 ; présent en Angola
 Heteropsis obscura (Oberthür, 1916) ; présent à Madagascar
 Heteropsis pallida (Oberthür, 1916) ; présent à Madagascar
-Heteropsis paradoxa (Mabille, [1880]) ; présent à Madagascar
+Heteropsis paradoxa (Mabille, ) ; présent à Madagascar
 Heteropsis parva (Butler, 1879) ; présent à Madagascar
 Heteropsis parvidens (Mabille, 1880) ; présent à Madagascar
 Heteropsis passandava (Ward, 1871) ; présent à Madagascar
